--- a/Code/Results/Cases/Case_3_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009180891216581</v>
+        <v>1.040764356737687</v>
       </c>
       <c r="D2">
-        <v>1.030134328733403</v>
+        <v>1.04851290669562</v>
       </c>
       <c r="E2">
-        <v>1.024850051215591</v>
+        <v>1.049271138652218</v>
       </c>
       <c r="F2">
-        <v>1.037014554284979</v>
+        <v>1.060499108654025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048386203912744</v>
+        <v>1.038760242541983</v>
       </c>
       <c r="J2">
-        <v>1.031090428537556</v>
+        <v>1.045849200829952</v>
       </c>
       <c r="K2">
-        <v>1.04118922029475</v>
+        <v>1.051272543180697</v>
       </c>
       <c r="L2">
-        <v>1.035973709556147</v>
+        <v>1.052028661921875</v>
       </c>
       <c r="M2">
-        <v>1.047981222195478</v>
+        <v>1.063225722269284</v>
       </c>
       <c r="N2">
-        <v>1.032554695213812</v>
+        <v>1.04733442665571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013700755031708</v>
+        <v>1.041734690530341</v>
       </c>
       <c r="D3">
-        <v>1.033524671075714</v>
+        <v>1.049260494261625</v>
       </c>
       <c r="E3">
-        <v>1.028545009786566</v>
+        <v>1.050112676945145</v>
       </c>
       <c r="F3">
-        <v>1.04087788096839</v>
+        <v>1.061374458915873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049448304153879</v>
+        <v>1.038927629996514</v>
       </c>
       <c r="J3">
-        <v>1.033824766176414</v>
+        <v>1.046465182399192</v>
       </c>
       <c r="K3">
-        <v>1.043745840353866</v>
+        <v>1.05183235797746</v>
       </c>
       <c r="L3">
-        <v>1.038825228598817</v>
+        <v>1.052682337049213</v>
       </c>
       <c r="M3">
-        <v>1.051013131872203</v>
+        <v>1.063915356078076</v>
       </c>
       <c r="N3">
-        <v>1.035292915925743</v>
+        <v>1.047951282989433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016568577826044</v>
+        <v>1.042363190272252</v>
       </c>
       <c r="D4">
-        <v>1.035678065458229</v>
+        <v>1.049744596310185</v>
       </c>
       <c r="E4">
-        <v>1.030895106834241</v>
+        <v>1.050658074965333</v>
       </c>
       <c r="F4">
-        <v>1.043334041037547</v>
+        <v>1.061941640165175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050112147042157</v>
+        <v>1.039034774585782</v>
       </c>
       <c r="J4">
-        <v>1.035557747985556</v>
+        <v>1.046863775842855</v>
       </c>
       <c r="K4">
-        <v>1.045364143625752</v>
+        <v>1.052194292140687</v>
       </c>
       <c r="L4">
-        <v>1.040634423555572</v>
+        <v>1.053105527441863</v>
       </c>
       <c r="M4">
-        <v>1.052936148411868</v>
+        <v>1.064361724062979</v>
       </c>
       <c r="N4">
-        <v>1.037028358767829</v>
+        <v>1.048350442481505</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017761080387526</v>
+        <v>1.042627561086979</v>
       </c>
       <c r="D5">
-        <v>1.036573975326793</v>
+        <v>1.049948198209434</v>
       </c>
       <c r="E5">
-        <v>1.031873642263329</v>
+        <v>1.050887566275619</v>
       </c>
       <c r="F5">
-        <v>1.044356489793315</v>
+        <v>1.06218026621159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050385734524694</v>
+        <v>1.039079538388775</v>
       </c>
       <c r="J5">
-        <v>1.036277859258661</v>
+        <v>1.047031346395825</v>
       </c>
       <c r="K5">
-        <v>1.046036097171566</v>
+        <v>1.052346375486543</v>
       </c>
       <c r="L5">
-        <v>1.041386667861131</v>
+        <v>1.0532834879219</v>
       </c>
       <c r="M5">
-        <v>1.053735561100253</v>
+        <v>1.064549406700378</v>
       </c>
       <c r="N5">
-        <v>1.03774949268154</v>
+        <v>1.04851825100388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017960550256189</v>
+        <v>1.042671958848197</v>
       </c>
       <c r="D6">
-        <v>1.036723860866536</v>
+        <v>1.049982388828908</v>
       </c>
       <c r="E6">
-        <v>1.032037397804664</v>
+        <v>1.050926110913126</v>
       </c>
       <c r="F6">
-        <v>1.044527579369491</v>
+        <v>1.062220343263752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050431352153154</v>
+        <v>1.039087038005129</v>
       </c>
       <c r="J6">
-        <v>1.03639828185798</v>
+        <v>1.04705948230824</v>
       </c>
       <c r="K6">
-        <v>1.046148436353492</v>
+        <v>1.05237190659036</v>
       </c>
       <c r="L6">
-        <v>1.041512491193635</v>
+        <v>1.053313371240531</v>
       </c>
       <c r="M6">
-        <v>1.053869264569692</v>
+        <v>1.064580921135377</v>
       </c>
       <c r="N6">
-        <v>1.037870086294763</v>
+        <v>1.048546426872519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016584563082777</v>
+        <v>1.042366722221779</v>
       </c>
       <c r="D7">
-        <v>1.03569007311921</v>
+        <v>1.049747316515033</v>
       </c>
       <c r="E7">
-        <v>1.030908218773304</v>
+        <v>1.050661140631905</v>
       </c>
       <c r="F7">
-        <v>1.043347742384339</v>
+        <v>1.061944827980776</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050115824167159</v>
+        <v>1.039035373821972</v>
       </c>
       <c r="J7">
-        <v>1.035567402952361</v>
+        <v>1.04686601492275</v>
       </c>
       <c r="K7">
-        <v>1.04537315492699</v>
+        <v>1.052196324577107</v>
       </c>
       <c r="L7">
-        <v>1.040644507519969</v>
+        <v>1.053107905158628</v>
       </c>
       <c r="M7">
-        <v>1.052946865306429</v>
+        <v>1.064364231773135</v>
       </c>
       <c r="N7">
-        <v>1.037038027445795</v>
+        <v>1.048352684741151</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010720461270097</v>
+        <v>1.041092154745527</v>
       </c>
       <c r="D8">
-        <v>1.03128865194703</v>
+        <v>1.048765481381342</v>
       </c>
       <c r="E8">
-        <v>1.026107422248335</v>
+        <v>1.049555360175952</v>
       </c>
       <c r="F8">
-        <v>1.038329431853562</v>
+        <v>1.060794776778827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048750061201898</v>
+        <v>1.038817053059661</v>
       </c>
       <c r="J8">
-        <v>1.032022191148689</v>
+        <v>1.046057371534076</v>
       </c>
       <c r="K8">
-        <v>1.042060842852255</v>
+        <v>1.051461797362049</v>
       </c>
       <c r="L8">
-        <v>1.036944993529973</v>
+        <v>1.052249528474294</v>
       </c>
       <c r="M8">
-        <v>1.049014079053947</v>
+        <v>1.063458759795415</v>
       </c>
       <c r="N8">
-        <v>1.03348778103472</v>
+        <v>1.047542892986112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9999293346008347</v>
+        <v>1.038851066359339</v>
       </c>
       <c r="D9">
-        <v>1.023209728387761</v>
+        <v>1.047038207271874</v>
       </c>
       <c r="E9">
-        <v>1.017320302396848</v>
+        <v>1.04761353404829</v>
       </c>
       <c r="F9">
-        <v>1.029136265803913</v>
+        <v>1.058774213910444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046158838783009</v>
+        <v>1.038423436869825</v>
       </c>
       <c r="J9">
-        <v>1.02548458849216</v>
+        <v>1.044632578062811</v>
       </c>
       <c r="K9">
-        <v>1.035937141897145</v>
+        <v>1.050165192507586</v>
       </c>
       <c r="L9">
-        <v>1.030138483817807</v>
+        <v>1.050738686655242</v>
       </c>
       <c r="M9">
-        <v>1.041773675025618</v>
+        <v>1.061864246221982</v>
       </c>
       <c r="N9">
-        <v>1.026940894232545</v>
+        <v>1.046116076144691</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9923939035048057</v>
+        <v>1.037360337171114</v>
       </c>
       <c r="D10">
-        <v>1.017586201139453</v>
+        <v>1.045888691656608</v>
       </c>
       <c r="E10">
-        <v>1.011219663320948</v>
+        <v>1.046323574199401</v>
       </c>
       <c r="F10">
-        <v>1.022748622057045</v>
+        <v>1.057431280721276</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044299378119615</v>
+        <v>1.038155071259451</v>
       </c>
       <c r="J10">
-        <v>1.020912581424609</v>
+        <v>1.043682871272064</v>
       </c>
       <c r="K10">
-        <v>1.031645028722884</v>
+        <v>1.049299327206051</v>
       </c>
       <c r="L10">
-        <v>1.025389255645607</v>
+        <v>1.049732688866392</v>
       </c>
       <c r="M10">
-        <v>1.036718941582912</v>
+        <v>1.060802015682557</v>
       </c>
       <c r="N10">
-        <v>1.022362394390542</v>
+        <v>1.045165020661369</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9890419153795651</v>
+        <v>1.036715637132243</v>
       </c>
       <c r="D11">
-        <v>1.015089905094181</v>
+        <v>1.045391431541094</v>
       </c>
       <c r="E11">
-        <v>1.008515112998059</v>
+        <v>1.045766114212849</v>
       </c>
       <c r="F11">
-        <v>1.01991568796832</v>
+        <v>1.056850769577393</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043461004172008</v>
+        <v>1.03803746062749</v>
       </c>
       <c r="J11">
-        <v>1.018877777428114</v>
+        <v>1.043271687459681</v>
       </c>
       <c r="K11">
-        <v>1.029732750271251</v>
+        <v>1.048924065129164</v>
       </c>
       <c r="L11">
-        <v>1.023278213718865</v>
+        <v>1.049297386768154</v>
       </c>
       <c r="M11">
-        <v>1.034471549193251</v>
+        <v>1.060342258801343</v>
       </c>
       <c r="N11">
-        <v>1.020324700738976</v>
+        <v>1.044753252920808</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9877827076645013</v>
+        <v>1.036476287303003</v>
       </c>
       <c r="D12">
-        <v>1.014153016277483</v>
+        <v>1.045206801731524</v>
       </c>
       <c r="E12">
-        <v>1.007500575901698</v>
+        <v>1.045559215619948</v>
       </c>
       <c r="F12">
-        <v>1.018852824336974</v>
+        <v>1.056635291827087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043144429757874</v>
+        <v>1.037993564025165</v>
       </c>
       <c r="J12">
-        <v>1.018113278866556</v>
+        <v>1.043118963324981</v>
       </c>
       <c r="K12">
-        <v>1.029013998805955</v>
+        <v>1.04878462659855</v>
       </c>
       <c r="L12">
-        <v>1.022485473835595</v>
+        <v>1.049135742625874</v>
       </c>
       <c r="M12">
-        <v>1.033627532893179</v>
+        <v>1.060171515332157</v>
       </c>
       <c r="N12">
-        <v>1.019559116501772</v>
+        <v>1.04460031190032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9880534639264928</v>
+        <v>1.036527623187011</v>
       </c>
       <c r="D13">
-        <v>1.014354426455272</v>
+        <v>1.045246402046908</v>
       </c>
       <c r="E13">
-        <v>1.007718655908832</v>
+        <v>1.045603588496362</v>
       </c>
       <c r="F13">
-        <v>1.019081299833627</v>
+        <v>1.056681505726476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043212572706747</v>
+        <v>1.038002989524767</v>
       </c>
       <c r="J13">
-        <v>1.018277666062127</v>
+        <v>1.043151722799308</v>
       </c>
       <c r="K13">
-        <v>1.029168561824804</v>
+        <v>1.04881453885846</v>
       </c>
       <c r="L13">
-        <v>1.022655915380907</v>
+        <v>1.049170413723509</v>
       </c>
       <c r="M13">
-        <v>1.033809002221641</v>
+        <v>1.060208138975974</v>
       </c>
       <c r="N13">
-        <v>1.019723737146016</v>
+        <v>1.044633117896858</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9889381216115329</v>
+        <v>1.036695849937614</v>
       </c>
       <c r="D14">
-        <v>1.015012661189806</v>
+        <v>1.045376168450357</v>
       </c>
       <c r="E14">
-        <v>1.008431456910433</v>
+        <v>1.04574900849829</v>
       </c>
       <c r="F14">
-        <v>1.019828050361803</v>
+        <v>1.056832955051829</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04343494244848</v>
+        <v>1.038033836417296</v>
       </c>
       <c r="J14">
-        <v>1.018814763277452</v>
+        <v>1.043259063069281</v>
       </c>
       <c r="K14">
-        <v>1.029673512565653</v>
+        <v>1.048912540099892</v>
       </c>
       <c r="L14">
-        <v>1.023212863552682</v>
+        <v>1.049284024259053</v>
       </c>
       <c r="M14">
-        <v>1.0344019734641</v>
+        <v>1.060328144459164</v>
       </c>
       <c r="N14">
-        <v>1.020261597100993</v>
+        <v>1.044740610602326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9894812929073711</v>
+        <v>1.036799515982873</v>
       </c>
       <c r="D15">
-        <v>1.015416928287558</v>
+        <v>1.045456131761559</v>
       </c>
       <c r="E15">
-        <v>1.008869303855046</v>
+        <v>1.045838628715319</v>
       </c>
       <c r="F15">
-        <v>1.020286729372218</v>
+        <v>1.05692628789341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043571261947961</v>
+        <v>1.03805281429209</v>
       </c>
       <c r="J15">
-        <v>1.019144523629877</v>
+        <v>1.043325200021442</v>
       </c>
       <c r="K15">
-        <v>1.029983498758879</v>
+        <v>1.048972915374542</v>
       </c>
       <c r="L15">
-        <v>1.023554864975645</v>
+        <v>1.049354029647021</v>
       </c>
       <c r="M15">
-        <v>1.034766085847839</v>
+        <v>1.06040208790497</v>
       </c>
       <c r="N15">
-        <v>1.020591825750942</v>
+        <v>1.044806841476545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9926144243744832</v>
+        <v>1.037403140631431</v>
       </c>
       <c r="D16">
-        <v>1.017750543582233</v>
+        <v>1.045921703573506</v>
       </c>
       <c r="E16">
-        <v>1.011397788238404</v>
+        <v>1.046360594304838</v>
       </c>
       <c r="F16">
-        <v>1.022935178982794</v>
+        <v>1.057469828276333</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0443543037739</v>
+        <v>1.038162847101506</v>
       </c>
       <c r="J16">
-        <v>1.021046429971076</v>
+        <v>1.043710161231857</v>
       </c>
       <c r="K16">
-        <v>1.03177077667035</v>
+        <v>1.049324225114175</v>
       </c>
       <c r="L16">
-        <v>1.025528174523702</v>
+        <v>1.049761584883405</v>
       </c>
       <c r="M16">
-        <v>1.036866822346733</v>
+        <v>1.060832532469252</v>
       </c>
       <c r="N16">
-        <v>1.022496433017297</v>
+        <v>1.045192349376035</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9945553915775591</v>
+        <v>1.037781992082636</v>
       </c>
       <c r="D17">
-        <v>1.019197647359185</v>
+        <v>1.046213876082478</v>
       </c>
       <c r="E17">
-        <v>1.012966653398246</v>
+        <v>1.046688305347131</v>
       </c>
       <c r="F17">
-        <v>1.024578180117601</v>
+        <v>1.057811042338655</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04483647276409</v>
+        <v>1.038231491583725</v>
       </c>
       <c r="J17">
-        <v>1.022224417965259</v>
+        <v>1.043951650118669</v>
       </c>
       <c r="K17">
-        <v>1.032877241784741</v>
+        <v>1.049544503065537</v>
       </c>
       <c r="L17">
-        <v>1.026751086804472</v>
+        <v>1.050017315055036</v>
       </c>
       <c r="M17">
-        <v>1.038168564794599</v>
+        <v>1.061102592328733</v>
       </c>
       <c r="N17">
-        <v>1.023676093889549</v>
+        <v>1.045434181204766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9956789812589693</v>
+        <v>1.038003046418217</v>
       </c>
       <c r="D18">
-        <v>1.020035838425691</v>
+        <v>1.046384342324806</v>
       </c>
       <c r="E18">
-        <v>1.013875708589481</v>
+        <v>1.046879559801622</v>
       </c>
       <c r="F18">
-        <v>1.025530082660098</v>
+        <v>1.058010161932888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045114521397614</v>
+        <v>1.038271395000576</v>
       </c>
       <c r="J18">
-        <v>1.022906231281362</v>
+        <v>1.044092510822737</v>
       </c>
       <c r="K18">
-        <v>1.033517462747596</v>
+        <v>1.049672954908685</v>
       </c>
       <c r="L18">
-        <v>1.027459151798169</v>
+        <v>1.050166507160114</v>
       </c>
       <c r="M18">
-        <v>1.038922219255304</v>
+        <v>1.06126013249718</v>
       </c>
       <c r="N18">
-        <v>1.024358875458766</v>
+        <v>1.04557524194719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9960606689280039</v>
+        <v>1.038078433213867</v>
       </c>
       <c r="D19">
-        <v>1.020320655687645</v>
+        <v>1.046442474829128</v>
       </c>
       <c r="E19">
-        <v>1.014184663298208</v>
+        <v>1.046944790589088</v>
       </c>
       <c r="F19">
-        <v>1.025853580865904</v>
+        <v>1.058078072670568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045208792432294</v>
+        <v>1.038284977992818</v>
       </c>
       <c r="J19">
-        <v>1.023137827054126</v>
+        <v>1.044140541385171</v>
       </c>
       <c r="K19">
-        <v>1.033734896881814</v>
+        <v>1.049716748111772</v>
       </c>
       <c r="L19">
-        <v>1.027699706827992</v>
+        <v>1.050217382700864</v>
       </c>
       <c r="M19">
-        <v>1.039178253385886</v>
+        <v>1.061313852777315</v>
       </c>
       <c r="N19">
-        <v>1.024590800124092</v>
+        <v>1.045623340718532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9943480330925115</v>
+        <v>1.037741336967647</v>
       </c>
       <c r="D20">
-        <v>1.019042998169581</v>
+        <v>1.04618252386939</v>
       </c>
       <c r="E20">
-        <v>1.012798956934242</v>
+        <v>1.046653134063975</v>
       </c>
       <c r="F20">
-        <v>1.02440257056581</v>
+        <v>1.057774423440455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044785072024171</v>
+        <v>1.038224140717592</v>
       </c>
       <c r="J20">
-        <v>1.022098580714069</v>
+        <v>1.043925740192209</v>
       </c>
       <c r="K20">
-        <v>1.03275906500563</v>
+        <v>1.049520872685848</v>
       </c>
       <c r="L20">
-        <v>1.026620424616093</v>
+        <v>1.049989874617713</v>
       </c>
       <c r="M20">
-        <v>1.03802948543614</v>
+        <v>1.06107361550567</v>
       </c>
       <c r="N20">
-        <v>1.023550077935029</v>
+        <v>1.045408234483238</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9886780082679828</v>
+        <v>1.036646308019268</v>
       </c>
       <c r="D21">
-        <v>1.014819097689185</v>
+        <v>1.045337953404016</v>
       </c>
       <c r="E21">
-        <v>1.008221833468425</v>
+        <v>1.045706181314362</v>
       </c>
       <c r="F21">
-        <v>1.019608447453604</v>
+        <v>1.056788352849021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043369604143734</v>
+        <v>1.038024758590405</v>
       </c>
       <c r="J21">
-        <v>1.018656844577007</v>
+        <v>1.043227453810616</v>
       </c>
       <c r="K21">
-        <v>1.029525053393945</v>
+        <v>1.048883682534169</v>
       </c>
       <c r="L21">
-        <v>1.023049097103126</v>
+        <v>1.049250567496988</v>
       </c>
       <c r="M21">
-        <v>1.034227616662038</v>
+        <v>1.060292804977569</v>
       </c>
       <c r="N21">
-        <v>1.02010345413788</v>
+        <v>1.044708956454889</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9850308795005189</v>
+        <v>1.035958517337491</v>
       </c>
       <c r="D22">
-        <v>1.012107269252227</v>
+        <v>1.044807371564969</v>
       </c>
       <c r="E22">
-        <v>1.005286198545303</v>
+        <v>1.045111760687091</v>
       </c>
       <c r="F22">
-        <v>1.016532666957775</v>
+        <v>1.05616923937211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042449664980416</v>
+        <v>1.037898179912173</v>
       </c>
       <c r="J22">
-        <v>1.016442438131347</v>
+        <v>1.042788459313526</v>
       </c>
       <c r="K22">
-        <v>1.027442634778163</v>
+        <v>1.048482770024634</v>
       </c>
       <c r="L22">
-        <v>1.020753657175846</v>
+        <v>1.048786005007813</v>
       </c>
       <c r="M22">
-        <v>1.03178357231167</v>
+        <v>1.05980205669872</v>
       </c>
       <c r="N22">
-        <v>1.017885902981071</v>
+        <v>1.044269338535259</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9869723413971121</v>
+        <v>1.036323061759536</v>
       </c>
       <c r="D23">
-        <v>1.013550335229706</v>
+        <v>1.045088601492755</v>
       </c>
       <c r="E23">
-        <v>1.006848087101621</v>
+        <v>1.045426782249821</v>
       </c>
       <c r="F23">
-        <v>1.018169208536422</v>
+        <v>1.056497360329415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042940245197242</v>
+        <v>1.037965397051292</v>
       </c>
       <c r="J23">
-        <v>1.017621261208923</v>
+        <v>1.043021173918551</v>
       </c>
       <c r="K23">
-        <v>1.028551344808267</v>
+        <v>1.048695328052768</v>
       </c>
       <c r="L23">
-        <v>1.021975394688098</v>
+        <v>1.04903225247484</v>
       </c>
       <c r="M23">
-        <v>1.033084440857656</v>
+        <v>1.060062194323211</v>
       </c>
       <c r="N23">
-        <v>1.01906640012263</v>
+        <v>1.044502383621716</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9944417558144979</v>
+        <v>1.037759707027217</v>
       </c>
       <c r="D24">
-        <v>1.01911289562053</v>
+        <v>1.046196690439999</v>
       </c>
       <c r="E24">
-        <v>1.0128747503696</v>
+        <v>1.046669026125075</v>
       </c>
       <c r="F24">
-        <v>1.024481940803742</v>
+        <v>1.057790969650305</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044808307658711</v>
+        <v>1.038227462677074</v>
       </c>
       <c r="J24">
-        <v>1.022155457460865</v>
+        <v>1.043937447759434</v>
       </c>
       <c r="K24">
-        <v>1.03281247992892</v>
+        <v>1.04953155033798</v>
       </c>
       <c r="L24">
-        <v>1.026679481395864</v>
+        <v>1.050002273680616</v>
       </c>
       <c r="M24">
-        <v>1.038092346779199</v>
+        <v>1.061086708826692</v>
       </c>
       <c r="N24">
-        <v>1.023607035453329</v>
+        <v>1.045419958676551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002776676427553</v>
+        <v>1.039429858991272</v>
       </c>
       <c r="D25">
-        <v>1.025338630346179</v>
+        <v>1.047484402860384</v>
       </c>
       <c r="E25">
-        <v>1.019633014751962</v>
+        <v>1.048114739766811</v>
       </c>
       <c r="F25">
-        <v>1.031556747997375</v>
+        <v>1.059295860388297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046851385948423</v>
+        <v>1.038526248149303</v>
       </c>
       <c r="J25">
-        <v>1.027210954313759</v>
+        <v>1.045000898440454</v>
       </c>
       <c r="K25">
-        <v>1.037555930447966</v>
+        <v>1.050500658540748</v>
       </c>
       <c r="L25">
-        <v>1.031934010972219</v>
+        <v>1.051129063691954</v>
       </c>
       <c r="M25">
-        <v>1.043684169205478</v>
+        <v>1.062276334606261</v>
       </c>
       <c r="N25">
-        <v>1.028669711691628</v>
+        <v>1.046484919579518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040764356737687</v>
+        <v>1.009180891216582</v>
       </c>
       <c r="D2">
-        <v>1.04851290669562</v>
+        <v>1.030134328733404</v>
       </c>
       <c r="E2">
-        <v>1.049271138652218</v>
+        <v>1.024850051215592</v>
       </c>
       <c r="F2">
-        <v>1.060499108654025</v>
+        <v>1.03701455428498</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038760242541983</v>
+        <v>1.048386203912744</v>
       </c>
       <c r="J2">
-        <v>1.045849200829952</v>
+        <v>1.031090428537557</v>
       </c>
       <c r="K2">
-        <v>1.051272543180697</v>
+        <v>1.041189220294751</v>
       </c>
       <c r="L2">
-        <v>1.052028661921875</v>
+        <v>1.035973709556148</v>
       </c>
       <c r="M2">
-        <v>1.063225722269284</v>
+        <v>1.047981222195479</v>
       </c>
       <c r="N2">
-        <v>1.04733442665571</v>
+        <v>1.032554695213814</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041734690530341</v>
+        <v>1.013700755031708</v>
       </c>
       <c r="D3">
-        <v>1.049260494261625</v>
+        <v>1.033524671075715</v>
       </c>
       <c r="E3">
-        <v>1.050112676945145</v>
+        <v>1.028545009786566</v>
       </c>
       <c r="F3">
-        <v>1.061374458915873</v>
+        <v>1.04087788096839</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038927629996514</v>
+        <v>1.049448304153879</v>
       </c>
       <c r="J3">
-        <v>1.046465182399192</v>
+        <v>1.033824766176415</v>
       </c>
       <c r="K3">
-        <v>1.05183235797746</v>
+        <v>1.043745840353867</v>
       </c>
       <c r="L3">
-        <v>1.052682337049213</v>
+        <v>1.038825228598817</v>
       </c>
       <c r="M3">
-        <v>1.063915356078076</v>
+        <v>1.051013131872203</v>
       </c>
       <c r="N3">
-        <v>1.047951282989433</v>
+        <v>1.035292915925743</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042363190272252</v>
+        <v>1.016568577826045</v>
       </c>
       <c r="D4">
-        <v>1.049744596310185</v>
+        <v>1.035678065458229</v>
       </c>
       <c r="E4">
-        <v>1.050658074965333</v>
+        <v>1.030895106834241</v>
       </c>
       <c r="F4">
-        <v>1.061941640165175</v>
+        <v>1.043334041037547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039034774585782</v>
+        <v>1.050112147042157</v>
       </c>
       <c r="J4">
-        <v>1.046863775842855</v>
+        <v>1.035557747985557</v>
       </c>
       <c r="K4">
-        <v>1.052194292140687</v>
+        <v>1.045364143625752</v>
       </c>
       <c r="L4">
-        <v>1.053105527441863</v>
+        <v>1.040634423555572</v>
       </c>
       <c r="M4">
-        <v>1.064361724062979</v>
+        <v>1.052936148411868</v>
       </c>
       <c r="N4">
-        <v>1.048350442481505</v>
+        <v>1.03702835876783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042627561086979</v>
+        <v>1.017761080387527</v>
       </c>
       <c r="D5">
-        <v>1.049948198209434</v>
+        <v>1.036573975326793</v>
       </c>
       <c r="E5">
-        <v>1.050887566275619</v>
+        <v>1.031873642263329</v>
       </c>
       <c r="F5">
-        <v>1.06218026621159</v>
+        <v>1.044356489793315</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039079538388775</v>
+        <v>1.050385734524694</v>
       </c>
       <c r="J5">
-        <v>1.047031346395825</v>
+        <v>1.036277859258662</v>
       </c>
       <c r="K5">
-        <v>1.052346375486543</v>
+        <v>1.046036097171567</v>
       </c>
       <c r="L5">
-        <v>1.0532834879219</v>
+        <v>1.041386667861131</v>
       </c>
       <c r="M5">
-        <v>1.064549406700378</v>
+        <v>1.053735561100253</v>
       </c>
       <c r="N5">
-        <v>1.04851825100388</v>
+        <v>1.037749492681541</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042671958848197</v>
+        <v>1.01796055025619</v>
       </c>
       <c r="D6">
-        <v>1.049982388828908</v>
+        <v>1.036723860866537</v>
       </c>
       <c r="E6">
-        <v>1.050926110913126</v>
+        <v>1.032037397804665</v>
       </c>
       <c r="F6">
-        <v>1.062220343263752</v>
+        <v>1.044527579369491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039087038005129</v>
+        <v>1.050431352153154</v>
       </c>
       <c r="J6">
-        <v>1.04705948230824</v>
+        <v>1.03639828185798</v>
       </c>
       <c r="K6">
-        <v>1.05237190659036</v>
+        <v>1.046148436353493</v>
       </c>
       <c r="L6">
-        <v>1.053313371240531</v>
+        <v>1.041512491193635</v>
       </c>
       <c r="M6">
-        <v>1.064580921135377</v>
+        <v>1.053869264569692</v>
       </c>
       <c r="N6">
-        <v>1.048546426872519</v>
+        <v>1.037870086294763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042366722221779</v>
+        <v>1.016584563082777</v>
       </c>
       <c r="D7">
-        <v>1.049747316515033</v>
+        <v>1.03569007311921</v>
       </c>
       <c r="E7">
-        <v>1.050661140631905</v>
+        <v>1.030908218773304</v>
       </c>
       <c r="F7">
-        <v>1.061944827980776</v>
+        <v>1.04334774238434</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039035373821972</v>
+        <v>1.050115824167159</v>
       </c>
       <c r="J7">
-        <v>1.04686601492275</v>
+        <v>1.035567402952361</v>
       </c>
       <c r="K7">
-        <v>1.052196324577107</v>
+        <v>1.04537315492699</v>
       </c>
       <c r="L7">
-        <v>1.053107905158628</v>
+        <v>1.040644507519969</v>
       </c>
       <c r="M7">
-        <v>1.064364231773135</v>
+        <v>1.05294686530643</v>
       </c>
       <c r="N7">
-        <v>1.048352684741151</v>
+        <v>1.037038027445795</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041092154745527</v>
+        <v>1.010720461270097</v>
       </c>
       <c r="D8">
-        <v>1.048765481381342</v>
+        <v>1.03128865194703</v>
       </c>
       <c r="E8">
-        <v>1.049555360175952</v>
+        <v>1.026107422248335</v>
       </c>
       <c r="F8">
-        <v>1.060794776778827</v>
+        <v>1.038329431853563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038817053059661</v>
+        <v>1.048750061201898</v>
       </c>
       <c r="J8">
-        <v>1.046057371534076</v>
+        <v>1.032022191148689</v>
       </c>
       <c r="K8">
-        <v>1.051461797362049</v>
+        <v>1.042060842852255</v>
       </c>
       <c r="L8">
-        <v>1.052249528474294</v>
+        <v>1.036944993529973</v>
       </c>
       <c r="M8">
-        <v>1.063458759795415</v>
+        <v>1.049014079053947</v>
       </c>
       <c r="N8">
-        <v>1.047542892986112</v>
+        <v>1.03348778103472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038851066359339</v>
+        <v>0.9999293346008344</v>
       </c>
       <c r="D9">
-        <v>1.047038207271874</v>
+        <v>1.023209728387761</v>
       </c>
       <c r="E9">
-        <v>1.04761353404829</v>
+        <v>1.017320302396848</v>
       </c>
       <c r="F9">
-        <v>1.058774213910444</v>
+        <v>1.029136265803913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038423436869825</v>
+        <v>1.046158838783009</v>
       </c>
       <c r="J9">
-        <v>1.044632578062811</v>
+        <v>1.025484588492159</v>
       </c>
       <c r="K9">
-        <v>1.050165192507586</v>
+        <v>1.035937141897145</v>
       </c>
       <c r="L9">
-        <v>1.050738686655242</v>
+        <v>1.030138483817807</v>
       </c>
       <c r="M9">
-        <v>1.061864246221982</v>
+        <v>1.041773675025618</v>
       </c>
       <c r="N9">
-        <v>1.046116076144691</v>
+        <v>1.026940894232544</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037360337171114</v>
+        <v>0.9923939035048045</v>
       </c>
       <c r="D10">
-        <v>1.045888691656608</v>
+        <v>1.017586201139452</v>
       </c>
       <c r="E10">
-        <v>1.046323574199401</v>
+        <v>1.011219663320947</v>
       </c>
       <c r="F10">
-        <v>1.057431280721276</v>
+        <v>1.022748622057043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038155071259451</v>
+        <v>1.044299378119614</v>
       </c>
       <c r="J10">
-        <v>1.043682871272064</v>
+        <v>1.020912581424608</v>
       </c>
       <c r="K10">
-        <v>1.049299327206051</v>
+        <v>1.031645028722883</v>
       </c>
       <c r="L10">
-        <v>1.049732688866392</v>
+        <v>1.025389255645606</v>
       </c>
       <c r="M10">
-        <v>1.060802015682557</v>
+        <v>1.03671894158291</v>
       </c>
       <c r="N10">
-        <v>1.045165020661369</v>
+        <v>1.022362394390541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036715637132243</v>
+        <v>0.9890419153795651</v>
       </c>
       <c r="D11">
-        <v>1.045391431541094</v>
+        <v>1.015089905094181</v>
       </c>
       <c r="E11">
-        <v>1.045766114212849</v>
+        <v>1.008515112998059</v>
       </c>
       <c r="F11">
-        <v>1.056850769577393</v>
+        <v>1.01991568796832</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03803746062749</v>
+        <v>1.043461004172008</v>
       </c>
       <c r="J11">
-        <v>1.043271687459681</v>
+        <v>1.018877777428114</v>
       </c>
       <c r="K11">
-        <v>1.048924065129164</v>
+        <v>1.029732750271251</v>
       </c>
       <c r="L11">
-        <v>1.049297386768154</v>
+        <v>1.023278213718865</v>
       </c>
       <c r="M11">
-        <v>1.060342258801343</v>
+        <v>1.03447154919325</v>
       </c>
       <c r="N11">
-        <v>1.044753252920808</v>
+        <v>1.020324700738976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036476287303003</v>
+        <v>0.9877827076645013</v>
       </c>
       <c r="D12">
-        <v>1.045206801731524</v>
+        <v>1.014153016277483</v>
       </c>
       <c r="E12">
-        <v>1.045559215619948</v>
+        <v>1.007500575901697</v>
       </c>
       <c r="F12">
-        <v>1.056635291827087</v>
+        <v>1.018852824336973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037993564025165</v>
+        <v>1.043144429757874</v>
       </c>
       <c r="J12">
-        <v>1.043118963324981</v>
+        <v>1.018113278866556</v>
       </c>
       <c r="K12">
-        <v>1.04878462659855</v>
+        <v>1.029013998805955</v>
       </c>
       <c r="L12">
-        <v>1.049135742625874</v>
+        <v>1.022485473835594</v>
       </c>
       <c r="M12">
-        <v>1.060171515332157</v>
+        <v>1.033627532893179</v>
       </c>
       <c r="N12">
-        <v>1.04460031190032</v>
+        <v>1.019559116501772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036527623187011</v>
+        <v>0.9880534639264923</v>
       </c>
       <c r="D13">
-        <v>1.045246402046908</v>
+        <v>1.014354426455272</v>
       </c>
       <c r="E13">
-        <v>1.045603588496362</v>
+        <v>1.007718655908832</v>
       </c>
       <c r="F13">
-        <v>1.056681505726476</v>
+        <v>1.019081299833627</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038002989524767</v>
+        <v>1.043212572706747</v>
       </c>
       <c r="J13">
-        <v>1.043151722799308</v>
+        <v>1.018277666062127</v>
       </c>
       <c r="K13">
-        <v>1.04881453885846</v>
+        <v>1.029168561824803</v>
       </c>
       <c r="L13">
-        <v>1.049170413723509</v>
+        <v>1.022655915380907</v>
       </c>
       <c r="M13">
-        <v>1.060208138975974</v>
+        <v>1.03380900222164</v>
       </c>
       <c r="N13">
-        <v>1.044633117896858</v>
+        <v>1.019723737146016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036695849937614</v>
+        <v>0.9889381216115321</v>
       </c>
       <c r="D14">
-        <v>1.045376168450357</v>
+        <v>1.015012661189805</v>
       </c>
       <c r="E14">
-        <v>1.04574900849829</v>
+        <v>1.008431456910431</v>
       </c>
       <c r="F14">
-        <v>1.056832955051829</v>
+        <v>1.019828050361802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038033836417296</v>
+        <v>1.04343494244848</v>
       </c>
       <c r="J14">
-        <v>1.043259063069281</v>
+        <v>1.018814763277451</v>
       </c>
       <c r="K14">
-        <v>1.048912540099892</v>
+        <v>1.029673512565653</v>
       </c>
       <c r="L14">
-        <v>1.049284024259053</v>
+        <v>1.023212863552681</v>
       </c>
       <c r="M14">
-        <v>1.060328144459164</v>
+        <v>1.034401973464099</v>
       </c>
       <c r="N14">
-        <v>1.044740610602326</v>
+        <v>1.020261597100992</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036799515982873</v>
+        <v>0.9894812929073714</v>
       </c>
       <c r="D15">
-        <v>1.045456131761559</v>
+        <v>1.015416928287559</v>
       </c>
       <c r="E15">
-        <v>1.045838628715319</v>
+        <v>1.008869303855046</v>
       </c>
       <c r="F15">
-        <v>1.05692628789341</v>
+        <v>1.020286729372219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03805281429209</v>
+        <v>1.043571261947961</v>
       </c>
       <c r="J15">
-        <v>1.043325200021442</v>
+        <v>1.019144523629877</v>
       </c>
       <c r="K15">
-        <v>1.048972915374542</v>
+        <v>1.029983498758879</v>
       </c>
       <c r="L15">
-        <v>1.049354029647021</v>
+        <v>1.023554864975646</v>
       </c>
       <c r="M15">
-        <v>1.06040208790497</v>
+        <v>1.03476608584784</v>
       </c>
       <c r="N15">
-        <v>1.044806841476545</v>
+        <v>1.020591825750942</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037403140631431</v>
+        <v>0.9926144243744829</v>
       </c>
       <c r="D16">
-        <v>1.045921703573506</v>
+        <v>1.017750543582233</v>
       </c>
       <c r="E16">
-        <v>1.046360594304838</v>
+        <v>1.011397788238404</v>
       </c>
       <c r="F16">
-        <v>1.057469828276333</v>
+        <v>1.022935178982794</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038162847101506</v>
+        <v>1.0443543037739</v>
       </c>
       <c r="J16">
-        <v>1.043710161231857</v>
+        <v>1.021046429971075</v>
       </c>
       <c r="K16">
-        <v>1.049324225114175</v>
+        <v>1.03177077667035</v>
       </c>
       <c r="L16">
-        <v>1.049761584883405</v>
+        <v>1.025528174523702</v>
       </c>
       <c r="M16">
-        <v>1.060832532469252</v>
+        <v>1.036866822346732</v>
       </c>
       <c r="N16">
-        <v>1.045192349376035</v>
+        <v>1.022496433017297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037781992082636</v>
+        <v>0.9945553915775588</v>
       </c>
       <c r="D17">
-        <v>1.046213876082478</v>
+        <v>1.019197647359185</v>
       </c>
       <c r="E17">
-        <v>1.046688305347131</v>
+        <v>1.012966653398246</v>
       </c>
       <c r="F17">
-        <v>1.057811042338655</v>
+        <v>1.0245781801176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038231491583725</v>
+        <v>1.04483647276409</v>
       </c>
       <c r="J17">
-        <v>1.043951650118669</v>
+        <v>1.022224417965259</v>
       </c>
       <c r="K17">
-        <v>1.049544503065537</v>
+        <v>1.032877241784741</v>
       </c>
       <c r="L17">
-        <v>1.050017315055036</v>
+        <v>1.026751086804472</v>
       </c>
       <c r="M17">
-        <v>1.061102592328733</v>
+        <v>1.038168564794599</v>
       </c>
       <c r="N17">
-        <v>1.045434181204766</v>
+        <v>1.023676093889549</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038003046418217</v>
+        <v>0.99567898125897</v>
       </c>
       <c r="D18">
-        <v>1.046384342324806</v>
+        <v>1.020035838425692</v>
       </c>
       <c r="E18">
-        <v>1.046879559801622</v>
+        <v>1.013875708589482</v>
       </c>
       <c r="F18">
-        <v>1.058010161932888</v>
+        <v>1.0255300826601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038271395000576</v>
+        <v>1.045114521397615</v>
       </c>
       <c r="J18">
-        <v>1.044092510822737</v>
+        <v>1.022906231281363</v>
       </c>
       <c r="K18">
-        <v>1.049672954908685</v>
+        <v>1.033517462747597</v>
       </c>
       <c r="L18">
-        <v>1.050166507160114</v>
+        <v>1.02745915179817</v>
       </c>
       <c r="M18">
-        <v>1.06126013249718</v>
+        <v>1.038922219255306</v>
       </c>
       <c r="N18">
-        <v>1.04557524194719</v>
+        <v>1.024358875458766</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038078433213867</v>
+        <v>0.996060668928004</v>
       </c>
       <c r="D19">
-        <v>1.046442474829128</v>
+        <v>1.020320655687645</v>
       </c>
       <c r="E19">
-        <v>1.046944790589088</v>
+        <v>1.014184663298208</v>
       </c>
       <c r="F19">
-        <v>1.058078072670568</v>
+        <v>1.025853580865903</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038284977992818</v>
+        <v>1.045208792432294</v>
       </c>
       <c r="J19">
-        <v>1.044140541385171</v>
+        <v>1.023137827054126</v>
       </c>
       <c r="K19">
-        <v>1.049716748111772</v>
+        <v>1.033734896881814</v>
       </c>
       <c r="L19">
-        <v>1.050217382700864</v>
+        <v>1.027699706827992</v>
       </c>
       <c r="M19">
-        <v>1.061313852777315</v>
+        <v>1.039178253385886</v>
       </c>
       <c r="N19">
-        <v>1.045623340718532</v>
+        <v>1.024590800124092</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037741336967647</v>
+        <v>0.994348033092513</v>
       </c>
       <c r="D20">
-        <v>1.04618252386939</v>
+        <v>1.019042998169583</v>
       </c>
       <c r="E20">
-        <v>1.046653134063975</v>
+        <v>1.012798956934244</v>
       </c>
       <c r="F20">
-        <v>1.057774423440455</v>
+        <v>1.024402570565812</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038224140717592</v>
+        <v>1.044785072024172</v>
       </c>
       <c r="J20">
-        <v>1.043925740192209</v>
+        <v>1.022098580714071</v>
       </c>
       <c r="K20">
-        <v>1.049520872685848</v>
+        <v>1.032759065005631</v>
       </c>
       <c r="L20">
-        <v>1.049989874617713</v>
+        <v>1.026620424616094</v>
       </c>
       <c r="M20">
-        <v>1.06107361550567</v>
+        <v>1.038029485436141</v>
       </c>
       <c r="N20">
-        <v>1.045408234483238</v>
+        <v>1.023550077935031</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036646308019268</v>
+        <v>0.9886780082679802</v>
       </c>
       <c r="D21">
-        <v>1.045337953404016</v>
+        <v>1.014819097689182</v>
       </c>
       <c r="E21">
-        <v>1.045706181314362</v>
+        <v>1.008221833468422</v>
       </c>
       <c r="F21">
-        <v>1.056788352849021</v>
+        <v>1.019608447453601</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038024758590405</v>
+        <v>1.043369604143733</v>
       </c>
       <c r="J21">
-        <v>1.043227453810616</v>
+        <v>1.018656844577005</v>
       </c>
       <c r="K21">
-        <v>1.048883682534169</v>
+        <v>1.029525053393942</v>
       </c>
       <c r="L21">
-        <v>1.049250567496988</v>
+        <v>1.023049097103123</v>
       </c>
       <c r="M21">
-        <v>1.060292804977569</v>
+        <v>1.034227616662035</v>
       </c>
       <c r="N21">
-        <v>1.044708956454889</v>
+        <v>1.020103454137877</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035958517337491</v>
+        <v>0.9850308795005184</v>
       </c>
       <c r="D22">
-        <v>1.044807371564969</v>
+        <v>1.012107269252226</v>
       </c>
       <c r="E22">
-        <v>1.045111760687091</v>
+        <v>1.005286198545302</v>
       </c>
       <c r="F22">
-        <v>1.05616923937211</v>
+        <v>1.016532666957774</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037898179912173</v>
+        <v>1.042449664980416</v>
       </c>
       <c r="J22">
-        <v>1.042788459313526</v>
+        <v>1.016442438131347</v>
       </c>
       <c r="K22">
-        <v>1.048482770024634</v>
+        <v>1.027442634778163</v>
       </c>
       <c r="L22">
-        <v>1.048786005007813</v>
+        <v>1.020753657175846</v>
       </c>
       <c r="M22">
-        <v>1.05980205669872</v>
+        <v>1.031783572311669</v>
       </c>
       <c r="N22">
-        <v>1.044269338535259</v>
+        <v>1.01788590298107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036323061759536</v>
+        <v>0.9869723413971131</v>
       </c>
       <c r="D23">
-        <v>1.045088601492755</v>
+        <v>1.013550335229706</v>
       </c>
       <c r="E23">
-        <v>1.045426782249821</v>
+        <v>1.006848087101622</v>
       </c>
       <c r="F23">
-        <v>1.056497360329415</v>
+        <v>1.018169208536424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037965397051292</v>
+        <v>1.042940245197242</v>
       </c>
       <c r="J23">
-        <v>1.043021173918551</v>
+        <v>1.017621261208924</v>
       </c>
       <c r="K23">
-        <v>1.048695328052768</v>
+        <v>1.028551344808267</v>
       </c>
       <c r="L23">
-        <v>1.04903225247484</v>
+        <v>1.021975394688099</v>
       </c>
       <c r="M23">
-        <v>1.060062194323211</v>
+        <v>1.033084440857656</v>
       </c>
       <c r="N23">
-        <v>1.044502383621716</v>
+        <v>1.019066400122631</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037759707027217</v>
+        <v>0.9944417558144978</v>
       </c>
       <c r="D24">
-        <v>1.046196690439999</v>
+        <v>1.019112895620529</v>
       </c>
       <c r="E24">
-        <v>1.046669026125075</v>
+        <v>1.0128747503696</v>
       </c>
       <c r="F24">
-        <v>1.057790969650305</v>
+        <v>1.024481940803742</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038227462677074</v>
+        <v>1.044808307658711</v>
       </c>
       <c r="J24">
-        <v>1.043937447759434</v>
+        <v>1.022155457460865</v>
       </c>
       <c r="K24">
-        <v>1.04953155033798</v>
+        <v>1.03281247992892</v>
       </c>
       <c r="L24">
-        <v>1.050002273680616</v>
+        <v>1.026679481395864</v>
       </c>
       <c r="M24">
-        <v>1.061086708826692</v>
+        <v>1.038092346779199</v>
       </c>
       <c r="N24">
-        <v>1.045419958676551</v>
+        <v>1.023607035453329</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039429858991272</v>
+        <v>1.002776676427552</v>
       </c>
       <c r="D25">
-        <v>1.047484402860384</v>
+        <v>1.025338630346178</v>
       </c>
       <c r="E25">
-        <v>1.048114739766811</v>
+        <v>1.019633014751961</v>
       </c>
       <c r="F25">
-        <v>1.059295860388297</v>
+        <v>1.031556747997374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038526248149303</v>
+        <v>1.046851385948422</v>
       </c>
       <c r="J25">
-        <v>1.045000898440454</v>
+        <v>1.027210954313758</v>
       </c>
       <c r="K25">
-        <v>1.050500658540748</v>
+        <v>1.037555930447965</v>
       </c>
       <c r="L25">
-        <v>1.051129063691954</v>
+        <v>1.031934010972218</v>
       </c>
       <c r="M25">
-        <v>1.062276334606261</v>
+        <v>1.043684169205477</v>
       </c>
       <c r="N25">
-        <v>1.046484919579518</v>
+        <v>1.028669711691627</v>
       </c>
     </row>
   </sheetData>
